--- a/data/trans_bre/P19C03-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P19C03-Provincia-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-5.67093874420048</v>
+        <v>-4.067625551042386</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.2458622330790229</v>
+        <v>-1.055015256638357</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-14.59624286572804</v>
+        <v>-13.71123032516214</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.052040037174854</v>
+        <v>0.7084955347971968</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.1352107512734118</v>
+        <v>-0.1020657628582774</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.01089763420468943</v>
+        <v>-0.04753385669445482</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.442279539866367</v>
+        <v>-0.4325613446637318</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.02883998216229743</v>
+        <v>0.0255622464869318</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>14.01510885314802</v>
+        <v>16.03108456904479</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>15.95379630091995</v>
+        <v>14.73540663300349</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.347209217146828</v>
+        <v>2.019039552128405</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>13.18283704997208</v>
+        <v>13.03259522107461</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.4491616983380189</v>
+        <v>0.5154028373494711</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.035976630358519</v>
+        <v>0.941093821474066</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1008964722308463</v>
+        <v>0.07974541600442848</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.9486326807061604</v>
+        <v>0.913885514090674</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>-6.141147044918199</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-4.793420656786076</v>
+        <v>-4.793420656786084</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.08195929905326453</v>
@@ -749,7 +749,7 @@
         <v>-0.1872763484612026</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.177213499203317</v>
+        <v>-0.1772134992033174</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-8.59787162286627</v>
+        <v>-9.721499835748148</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-6.1693867133286</v>
+        <v>-6.607560980891892</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-12.9290048844046</v>
+        <v>-12.94869650638045</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-10.3906517565883</v>
+        <v>-11.25969479478998</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.234577139635654</v>
+        <v>-0.2637890038175237</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.1808013105984753</v>
+        <v>-0.1938462403223531</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.349915070291288</v>
+        <v>-0.3566569699494156</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.345737408633295</v>
+        <v>-0.3566386181470247</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.506595802611709</v>
+        <v>3.749004069377297</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>7.320774478266316</v>
+        <v>6.622622485245869</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4264125063529091</v>
+        <v>0.7695981917501152</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1.408854298680735</v>
+        <v>1.362502394957728</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.1197085778673978</v>
+        <v>0.1284109201911276</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2733253460716883</v>
+        <v>0.2449963817066102</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.01290162341911304</v>
+        <v>0.027083411512373</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.06174052443859002</v>
+        <v>0.05828891780164124</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-9.914233487369394</v>
+        <v>-10.22293205558824</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-13.38209501414828</v>
+        <v>-14.33014249490188</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-10.33136460945484</v>
+        <v>-10.39514124210255</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-9.487923488588311</v>
+        <v>-9.601235542723058</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.2720398908651765</v>
+        <v>-0.2800567921663251</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.3683072743872231</v>
+        <v>-0.3824987190262006</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.3343581800870006</v>
+        <v>-0.3333877592473476</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.423112584926593</v>
+        <v>-0.4405394695731134</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>5.963437588877902</v>
+        <v>5.603469515160748</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.334402111770293</v>
+        <v>0.794904843946273</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.824690201942687</v>
+        <v>3.221581976706322</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1.285495408904261</v>
+        <v>1.56857177885749</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.2289558125769806</v>
+        <v>0.2039518054478818</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.04257214181615532</v>
+        <v>0.02631174284464353</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1164056935034379</v>
+        <v>0.1325778963645651</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.1062440734328417</v>
+        <v>0.1224965801649964</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-6.387945112241342</v>
+        <v>-7.6820132857819</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-16.91574294384905</v>
+        <v>-16.82326959120428</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.3176148152821285</v>
+        <v>0.4367589866409995</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-8.375215378690321</v>
+        <v>-8.330563335434627</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.1858047230009793</v>
+        <v>-0.2100724053423619</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.4381858063365853</v>
+        <v>-0.4252230050653033</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.0139819451758464</v>
+        <v>0.01562353382891227</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.3314958108722782</v>
+        <v>-0.3437767986288506</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>8.348792552678221</v>
+        <v>8.396322907926312</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-1.570128093201618</v>
+        <v>-1.667541249329309</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>12.43071585268142</v>
+        <v>12.47625005275286</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>6.257664212747764</v>
+        <v>6.265364418586652</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.306955309581585</v>
+        <v>0.3201976551710731</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>-0.04866704635489101</v>
+        <v>-0.05098789343312442</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.8443699042780112</v>
+        <v>0.8321560765502882</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.4392927155161649</v>
+        <v>0.4455690094061395</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>-0.03441430878282359</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1.062346454808957</v>
+        <v>1.062346454808955</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>-0.02614361265518916</v>
@@ -1049,7 +1049,7 @@
         <v>-0.001427750765683925</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.05096004469363014</v>
+        <v>0.05096004469363</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-10.35323424944262</v>
+        <v>-11.02601172001188</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-11.22462827421468</v>
+        <v>-11.08688161029934</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-10.78915512327912</v>
+        <v>-10.95953173780072</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-4.956586613796361</v>
+        <v>-5.477072280427535</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.3066499429696409</v>
+        <v>-0.3267278763600352</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.3104655430358885</v>
+        <v>-0.3094223667883183</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>-0.3556664808173977</v>
+        <v>-0.3630022836734931</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>-0.2028320254010033</v>
+        <v>-0.2204542959041893</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>8.413204812386486</v>
+        <v>8.636324719219459</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.620472120894631</v>
+        <v>8.324837977762691</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>10.18525197384678</v>
+        <v>9.222266647718348</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7.349469625190332</v>
+        <v>6.716544784068895</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.3585871487988447</v>
+        <v>0.3515710700917392</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2858154964641579</v>
+        <v>0.3053737451519952</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5389083448486405</v>
+        <v>0.4923199316048318</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.4430576986092626</v>
+        <v>0.3983123625787723</v>
       </c>
     </row>
     <row r="19">
@@ -1137,7 +1137,7 @@
         <v>-1.203502147276236</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>-7.375660513632279</v>
+        <v>-7.375660513632273</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-0.1070532256581315</v>
@@ -1149,7 +1149,7 @@
         <v>-0.05323607522401357</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>-0.3141031938368455</v>
+        <v>-0.3141031938368453</v>
       </c>
     </row>
     <row r="20">
@@ -1160,28 +1160,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-11.94822357998039</v>
+        <v>-11.84704886174605</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-7.83050023917302</v>
+        <v>-7.642017720075504</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-9.042497072796849</v>
+        <v>-8.515933737711752</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>-13.71087136436433</v>
+        <v>-14.84295541811075</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3513613549759875</v>
+        <v>-0.3522378538262261</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2590293166511599</v>
+        <v>-0.2545019822707923</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.33063761979601</v>
+        <v>-0.3244523532432234</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.4999420332012983</v>
+        <v>-0.5161535311348451</v>
       </c>
     </row>
     <row r="21">
@@ -1192,28 +1192,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>5.697364247709298</v>
+        <v>5.893737679901963</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>7.35380893419636</v>
+        <v>8.5217464683234</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>6.117847504998927</v>
+        <v>6.842931713244416</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>-1.146740365728076</v>
+        <v>-1.845290719632503</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.2512564279240786</v>
+        <v>0.2470070412403738</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3280707636107933</v>
+        <v>0.3878990834231907</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.3246250568918023</v>
+        <v>0.3861566365069318</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>-0.05020211483088417</v>
+        <v>-0.08946243773962276</v>
       </c>
     </row>
     <row r="22">
@@ -1237,7 +1237,7 @@
         <v>-2.56944884420045</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>-1.187516927684182</v>
+        <v>-1.187516927684185</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>-0.0639622839122162</v>
@@ -1249,7 +1249,7 @@
         <v>-0.07208411248745809</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>-0.05376524894188887</v>
+        <v>-0.053765248941889</v>
       </c>
     </row>
     <row r="23">
@@ -1260,28 +1260,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-7.969749537516034</v>
+        <v>-8.304193154344633</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-7.629427539767882</v>
+        <v>-7.925593446550426</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-8.638400612564237</v>
+        <v>-9.388915907626991</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-5.729518485913773</v>
+        <v>-5.680296439370241</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.2189443447585709</v>
+        <v>-0.2294182477346375</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.2303877783576755</v>
+        <v>-0.2385769032480723</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.2270628264501237</v>
+        <v>-0.2440671895548217</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.2241803841723044</v>
+        <v>-0.2312160112528307</v>
       </c>
     </row>
     <row r="24">
@@ -1292,28 +1292,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.520669426333594</v>
+        <v>3.391619860715656</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>3.487594127307734</v>
+        <v>2.927428114385932</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.710633777927117</v>
+        <v>3.487117015725496</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.429470453474016</v>
+        <v>3.801567031280691</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.1208146448545284</v>
+        <v>0.1148478698765327</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.136252129320589</v>
+        <v>0.1103730035674614</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1150826144654073</v>
+        <v>0.1090961625389352</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.1842579063246998</v>
+        <v>0.2007107976524068</v>
       </c>
     </row>
     <row r="25">
@@ -1337,7 +1337,7 @@
         <v>0.7469925045216486</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1.846523758744105</v>
+        <v>1.846523758744102</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1476238620719023</v>
@@ -1349,7 +1349,7 @@
         <v>0.02837967136483717</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>0.1803160128927597</v>
+        <v>0.1803160128927594</v>
       </c>
     </row>
     <row r="26">
@@ -1360,28 +1360,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-1.090474516627892</v>
+        <v>-1.849050847671327</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-3.840456321776468</v>
+        <v>-4.027491718638957</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-4.05667917739779</v>
+        <v>-4.086578783038473</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-1.240888909579494</v>
+        <v>-1.14476577148487</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.03427467400886115</v>
+        <v>-0.0493996735288641</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.110635413292418</v>
+        <v>-0.1121673890062323</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.1417587043769512</v>
+        <v>-0.1442221667520733</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.1049123372091612</v>
+        <v>-0.09350591898663389</v>
       </c>
     </row>
     <row r="27">
@@ -1392,28 +1392,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>10.08072404260288</v>
+        <v>9.761028718752296</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>6.876584580938255</v>
+        <v>6.893486401077213</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>5.392881711498516</v>
+        <v>5.366231089895425</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>4.965109311427391</v>
+        <v>4.931291019357395</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.3566241500212043</v>
+        <v>0.3601142627355396</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2341161974159653</v>
+        <v>0.2370096207769432</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.22902559102723</v>
+        <v>0.2229340712800654</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.5940298547871384</v>
+        <v>0.6000485544851586</v>
       </c>
     </row>
     <row r="28">
@@ -1460,28 +1460,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-2.455200068826193</v>
+        <v>-2.518116135607582</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-3.510096056312682</v>
+        <v>-3.253878590191951</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-3.646289708293544</v>
+        <v>-3.595102304708115</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-2.781248586850698</v>
+        <v>-2.692431892547195</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>-0.07389770873298646</v>
+        <v>-0.07489612922722605</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>-0.1120170615302462</v>
+        <v>-0.1044930367898966</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>-0.1264333585983227</v>
+        <v>-0.1237110630122797</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>-0.1352605265070166</v>
+        <v>-0.1341989116682828</v>
       </c>
     </row>
     <row r="30">
@@ -1492,28 +1492,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.697841898796507</v>
+        <v>2.868631519281818</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>1.357871714317097</v>
+        <v>1.350446549017565</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.163419546347709</v>
+        <v>1.273836460666417</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1.021378246823736</v>
+        <v>1.118125045814277</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.0891449087951158</v>
+        <v>0.09677956237575865</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.04649652537681277</v>
+        <v>0.04653359991240334</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.04378118002787219</v>
+        <v>0.04972027175170368</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>0.057917975014107</v>
+        <v>0.06251783230410818</v>
       </c>
     </row>
     <row r="31">
